--- a/aircraft-maintenance-planning-model/data/data-sample-01/input/list2.xlsx
+++ b/aircraft-maintenance-planning-model/data/data-sample-01/input/list2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmadjan\Desktop\csat\git repository\aircraft-maintenance-planning-system\aircraft-maintenance-planning-model\data\data-sample-01\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56D7861-767D-426D-BCAE-0E5B02DE681A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB73694-0DCD-4D38-B0C4-7127F5DB1EF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{320C1984-769C-45EF-BB76-CB36689144F2}"/>
   </bookViews>
@@ -4313,17 +4313,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA411A8-F65E-48B7-80E3-56D3204C4257}">
   <dimension ref="A1:S306"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24.54296875" customWidth="1"/>
     <col min="2" max="2" width="8.7265625" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" customWidth="1"/>
-    <col min="4" max="4" width="12.08984375" customWidth="1"/>
-    <col min="16" max="16" width="16.7265625" customWidth="1"/>
+    <col min="3" max="4" width="36.08984375" customWidth="1"/>
+    <col min="10" max="10" width="5.54296875" customWidth="1"/>
+    <col min="11" max="11" width="10.453125" customWidth="1"/>
+    <col min="12" max="12" width="12.6328125" customWidth="1"/>
+    <col min="14" max="14" width="26.90625" customWidth="1"/>
+    <col min="16" max="16" width="29" customWidth="1"/>
+    <col min="17" max="17" width="30.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
